--- a/research-paper/data source/各大學人數.xlsx
+++ b/research-paper/data source/各大學人數.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\research-paper\data source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F9F18-0403-4881-8D06-381416801196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F4DAD-9FE2-4B03-AFF4-821148A8F8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{CAFB0F4F-3521-400E-B7CA-C77E5495C242}"/>
   </bookViews>
@@ -794,7 +794,7 @@
               <a:rPr lang="zh-TW" altLang="en-US" sz="1600" baseline="0">
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
-              <a:t>年度台北大專院校人數</a:t>
+              <a:t>年度台北大專院校租屋比例</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" sz="1600" baseline="0">
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>

--- a/research-paper/data source/各大學人數.xlsx
+++ b/research-paper/data source/各大學人數.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F4DAD-9FE2-4B03-AFF4-821148A8F8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B96B914-BFFE-466D-87B9-0F7CCF153D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{CAFB0F4F-3521-400E-B7CA-C77E5495C242}"/>
   </bookViews>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租屋人數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未租屋人數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +392,10 @@
   </si>
   <si>
     <t>111年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有租屋人數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,6 +862,7 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="20"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -1210,7 +1211,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>租屋人數</c:v>
+                  <c:v>有租屋人數</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>未租屋人數</c:v>
@@ -1321,7 +1322,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>租屋人數</c:v>
+                  <c:v>有租屋人數</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>未租屋人數</c:v>
@@ -1356,7 +1357,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
+        <c:firstSliceAng val="15"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -3792,7 +3793,7 @@
         <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>50</v>
@@ -3841,7 +3842,7 @@
         <v>33109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
         <f>租屋人數!J50</f>
@@ -3879,7 +3880,7 @@
         <v>16124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="42">
         <f>G2-G3</f>
@@ -4613,46 +4614,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>86</v>
-      </c>
       <c r="J1" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="L1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="M1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>109</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4660,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="45">
         <v>796</v>
@@ -4704,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="45">
         <v>4628</v>
@@ -4748,7 +4749,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="45">
         <v>67</v>
@@ -4789,10 +4790,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="45">
         <v>326</v>
@@ -4836,7 +4837,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="45">
         <v>677</v>
@@ -4879,10 +4880,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="45">
         <v>353</v>
@@ -4925,10 +4926,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="45">
         <v>94</v>
@@ -4969,10 +4970,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="45">
         <v>209</v>
@@ -5013,10 +5014,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="45">
         <v>325</v>
@@ -5060,7 +5061,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="45">
         <v>2337</v>
@@ -5104,7 +5105,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="45">
         <v>3350</v>
@@ -5148,7 +5149,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="45">
         <v>670</v>
@@ -5189,10 +5190,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="45">
         <v>211</v>
@@ -5233,10 +5234,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="45">
         <v>1043</v>
@@ -5277,10 +5278,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="45">
         <v>680</v>
@@ -5324,7 +5325,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="45">
         <v>857</v>
@@ -5368,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="45">
         <v>860</v>
@@ -5409,10 +5410,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="45">
         <v>581</v>
@@ -5453,10 +5454,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="45">
         <v>314</v>
@@ -5505,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="45">
         <v>7371</v>
@@ -5549,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="45">
         <v>2307</v>
@@ -5593,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="45">
         <v>1632</v>
@@ -5637,7 +5638,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="45">
         <v>1710</v>
@@ -5681,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="45">
         <v>379</v>
@@ -5725,7 +5726,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="45">
         <v>1516</v>
@@ -5769,7 +5770,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="45">
         <v>1752</v>
@@ -5813,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="45">
         <v>2057</v>
@@ -5857,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="45">
         <v>14313</v>
@@ -5901,7 +5902,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="45">
         <v>4231</v>
@@ -5945,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="45">
         <v>7409</v>
@@ -5989,7 +5990,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="45">
         <v>311</v>
@@ -6033,7 +6034,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="45">
         <v>1233</v>
@@ -6074,10 +6075,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="45">
         <v>778</v>
@@ -6118,10 +6119,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="45">
         <v>3749</v>
@@ -6165,7 +6166,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="45">
         <v>896</v>
@@ -6206,10 +6207,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="45">
         <v>85</v>
@@ -6253,7 +6254,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="45">
         <v>346</v>
@@ -6297,7 +6298,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="45">
         <v>127</v>
@@ -6344,7 +6345,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="45">
         <v>1271</v>
@@ -6388,7 +6389,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="45">
         <v>2010</v>
@@ -6429,10 +6430,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="45">
         <v>81</v>
@@ -6476,7 +6477,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="45">
         <v>1374</v>
@@ -6521,7 +6522,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="45">
         <v>4552</v>
@@ -6568,7 +6569,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="45">
         <v>805</v>
@@ -6613,7 +6614,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="45">
         <v>608</v>
@@ -6657,7 +6658,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="45">
         <v>867</v>
@@ -6698,10 +6699,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="45">
         <v>39</v>
@@ -6742,10 +6743,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="49">
         <v>1209</v>
@@ -6786,7 +6787,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J50" s="53">
         <f>SUM(J2:J49)</f>
